--- a/medicine/Enfance/Chris_Van_Allsburg/Chris_Van_Allsburg.xlsx
+++ b/medicine/Enfance/Chris_Van_Allsburg/Chris_Van_Allsburg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chris Van Allsburg, né le 18 juin 1949 à Grand Rapids dans le Michigan, est un auteur et illustrateur américain de livre pour enfants.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chris Van Allsburg a été deux fois récompensé de la médaille Caldecott, pour ses livres Jumanji en 1982, et Boréal-express en 1986, qu'il écrivit et illustra et qui furent adaptés au cinéma. Il reçut par ailleurs la médaille Caldecott d'honneur en 1980 pour son livre Le Jardin d'Abdul Gasazi.
 À noter la présence dans chaque album d'un fox-terrier blanc avec une tache noire sur un œil. Ce chien est un véritable personnage dans Le Jardin d'Abdul Gasazi, mais n'apparaît que par incidence dans les autres ouvrages. Parfois, ce n'est même pas un animal, mais un jouet.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1979 : Le Jardin d'Abdul Gasazi
 1981 : Jumanji
@@ -601,10 +617,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1980 : Finaliste Médaille Caldecott pour Le Jardin d'Abdul Gasazi
-1982 : (international) « Honour List »[1] de l' IBBY pour Le Jardin d'Abdul Gasazi
+1982 : (international) « Honour List » de l' IBBY pour Le Jardin d'Abdul Gasazi
 1982 : Médaille Caldecott pour Jumanji
 1986 : Médaille Caldecott pour Boréal-express
 1993 : Médaille Regina (en)</t>
@@ -635,7 +653,9 @@
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cinéma
 1995 : Jumanji, de Joe Johnston
